--- a/nodes_source_analyses/industry/industry_chp_wood_pellets.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_wood_pellets.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martlubben/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D678A465-571D-5741-9BBF-A9D3B59A0AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02EC4C8-B5D3-2F44-BC35-96F94197FDA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="51200" windowHeight="28340" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="136">
   <si>
     <t>Source</t>
   </si>
@@ -553,6 +553,9 @@
   <si>
     <t>p 83-84</t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -563,12 +566,19 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -784,6 +794,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1094,580 +1110,581 @@
   </borders>
   <cellStyleXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="180" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="180" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="180" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="265">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2528,12 +2545,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="30"/>
+    <col min="1" max="1" width="3.42578125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="36" customFormat="1">
@@ -2707,23 +2724,23 @@
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="45" customWidth="1"/>
     <col min="3" max="3" width="46" style="45" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="45" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="45" customWidth="1"/>
     <col min="7" max="7" width="45" style="45" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="45" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="45" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="45"/>
+    <col min="8" max="8" width="5.140625" style="45" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2733,28 +2750,28 @@
       <c r="G1" s="43"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="168" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="172"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="173"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
     <row r="4" spans="2:11" ht="31" customHeight="1">
-      <c r="B4" s="173"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="175"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="176"/>
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
     </row>
@@ -3164,15 +3181,15 @@
         <v>3</v>
       </c>
       <c r="E27" s="52">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="44" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="44"/>
-      <c r="I27" s="42" t="s">
-        <v>53</v>
+      <c r="I27" s="177" t="s">
+        <v>135</v>
       </c>
       <c r="J27" s="132"/>
     </row>
@@ -3416,26 +3433,26 @@
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="74" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="74" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="74" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="74" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="74" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="74" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="74" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="74" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="75" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" style="75" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="75" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" style="75" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="74" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="74" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="74" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="74" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="74" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="74" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="74" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="74" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="75" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" style="75" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="75" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="75" customWidth="1"/>
     <col min="14" max="14" width="60" style="74" customWidth="1"/>
-    <col min="15" max="16384" width="10.6640625" style="74"/>
+    <col min="15" max="16384" width="10.7109375" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" thickBot="1"/>
@@ -3906,18 +3923,18 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="57" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="53" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="33.5" style="54" customWidth="1"/>
-    <col min="11" max="11" width="77.5" style="53" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="53"/>
+    <col min="1" max="1" width="3.28515625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="53" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="54" customWidth="1"/>
+    <col min="11" max="11" width="77.42578125" style="53" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:11" ht="17" thickBot="1"/>
@@ -4152,15 +4169,15 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="146" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="150" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="146" customWidth="1"/>
-    <col min="4" max="5" width="18.5" style="146" customWidth="1"/>
-    <col min="6" max="12" width="10.6640625" style="146"/>
-    <col min="13" max="13" width="33.5" style="146" customWidth="1"/>
-    <col min="14" max="16384" width="10.6640625" style="146"/>
+    <col min="1" max="1" width="3.42578125" style="146" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="150" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="146" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" style="146" customWidth="1"/>
+    <col min="6" max="12" width="10.7109375" style="146"/>
+    <col min="13" max="13" width="33.42578125" style="146" customWidth="1"/>
+    <col min="14" max="16384" width="10.7109375" style="146"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="17" thickBot="1"/>
@@ -4522,7 +4539,7 @@
       </c>
     </row>
     <row r="31" spans="3:13">
-      <c r="C31" s="176" t="s">
+      <c r="C31" s="167" t="s">
         <v>134</v>
       </c>
     </row>

--- a/nodes_source_analyses/industry/industry_chp_wood_pellets.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_wood_pellets.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02EC4C8-B5D3-2F44-BC35-96F94197FDA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0378A18C-462A-934F-83EF-1EE2B99917AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="134">
   <si>
     <t>Source</t>
   </si>
@@ -170,12 +172,6 @@
   </si>
   <si>
     <t>takes_part_in_ets</t>
-  </si>
-  <si>
-    <t>part_load_efficiency_penalty</t>
-  </si>
-  <si>
-    <t>part_load_operating_point</t>
   </si>
   <si>
     <t>electricity_output_capacity</t>
@@ -1657,6 +1653,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="180" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1684,7 +1681,6 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="265">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2545,12 +2541,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="30"/>
+    <col min="1" max="1" width="3.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="36" customFormat="1">
@@ -2576,16 +2572,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13"/>
       <c r="B5" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2610,7 +2606,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="13"/>
       <c r="B9" s="109" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="110"/>
     </row>
@@ -2622,31 +2618,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="13"/>
       <c r="B11" s="111" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="113" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="13"/>
       <c r="B12" s="111"/>
       <c r="C12" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="13"/>
       <c r="B13" s="111"/>
       <c r="C13" s="114" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="13"/>
       <c r="B14" s="111"/>
       <c r="C14" s="112" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2657,58 +2653,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="13"/>
       <c r="B16" s="111" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="13"/>
       <c r="B17" s="111"/>
       <c r="C17" s="116" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="13"/>
       <c r="B18" s="111"/>
       <c r="C18" s="117" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="13"/>
       <c r="B19" s="111"/>
       <c r="C19" s="118" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="13"/>
       <c r="B20" s="119"/>
       <c r="C20" s="120" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="13"/>
       <c r="B21" s="119"/>
       <c r="C21" s="121" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="13"/>
       <c r="B22" s="119"/>
       <c r="C22" s="122" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="119"/>
       <c r="C23" s="123" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2722,25 +2718,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K40"/>
+  <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="45" customWidth="1"/>
     <col min="3" max="3" width="46" style="45" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="45" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="45" customWidth="1"/>
     <col min="7" max="7" width="45" style="45" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="45" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="45"/>
+    <col min="8" max="8" width="5.1640625" style="45" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="45" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2750,28 +2746,28 @@
       <c r="G1" s="43"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="168" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="170"/>
+      <c r="B2" s="169" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="171"/>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="171"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
     <row r="4" spans="2:11" ht="31" customHeight="1">
-      <c r="B4" s="174"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="176"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="177"/>
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
     </row>
@@ -2824,7 +2820,7 @@
     <row r="9" spans="2:11" s="49" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="32"/>
       <c r="C9" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="26"/>
@@ -2837,7 +2833,7 @@
     <row r="10" spans="2:11" s="49" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="32"/>
       <c r="C10" s="141" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>5</v>
@@ -2850,14 +2846,14 @@
       <c r="G10" s="44"/>
       <c r="H10" s="39"/>
       <c r="I10" s="165" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J10" s="50"/>
     </row>
     <row r="11" spans="2:11" s="49" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="32"/>
       <c r="C11" s="44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>5</v>
@@ -2870,7 +2866,7 @@
       <c r="G11" s="44"/>
       <c r="H11" s="39"/>
       <c r="I11" s="165" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J11" s="50"/>
     </row>
@@ -2889,7 +2885,7 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J12" s="132"/>
       <c r="K12" s="43"/>
@@ -2909,7 +2905,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J13" s="132"/>
       <c r="K13" s="43"/>
@@ -2920,19 +2916,21 @@
         <v>38</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0.1</v>
+        <v>59</v>
+      </c>
+      <c r="E14" s="52">
+        <f>'Research data'!G6</f>
+        <v>176.5</v>
       </c>
       <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+      <c r="G14" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="H14" s="44"/>
-      <c r="I14" s="42" t="s">
-        <v>53</v>
+      <c r="I14" s="165" t="s">
+        <v>118</v>
       </c>
       <c r="J14" s="132"/>
-      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="48"/>
@@ -2940,114 +2938,114 @@
         <v>39</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="42">
-        <v>0.7</v>
+        <v>59</v>
+      </c>
+      <c r="E15" s="51">
+        <f>E14*E11/E10</f>
+        <v>528.2347670250897</v>
       </c>
       <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="G15" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="H15" s="44"/>
-      <c r="I15" s="42" t="s">
-        <v>53</v>
+      <c r="I15" s="165" t="s">
+        <v>118</v>
       </c>
       <c r="J15" s="132"/>
-      <c r="K15" s="43"/>
-    </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1">
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="48"/>
-      <c r="C16" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="52">
-        <f>'Research data'!G6</f>
-        <v>176.5</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="42" t="s">
-        <v>53</v>
-      </c>
+      <c r="C16" s="93"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="132"/>
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="48"/>
-      <c r="C17" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="51">
-        <f>E16*E11/E10</f>
-        <v>528.2347670250897</v>
-      </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="42" t="s">
-        <v>53</v>
-      </c>
+      <c r="C17" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="132"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="48"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="C18" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="52">
+        <f>'Research data'!G16</f>
+        <v>617750000</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="165" t="s">
+        <v>118</v>
+      </c>
       <c r="J18" s="132"/>
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="48"/>
-      <c r="C19" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="C19" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="52">
+        <v>0</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="42" t="s">
+        <v>51</v>
+      </c>
       <c r="J19" s="132"/>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="48"/>
       <c r="C20" s="44" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="52">
-        <f>'Research data'!G16</f>
-        <v>617750000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="44" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H20" s="44"/>
-      <c r="I20" s="165" t="s">
-        <v>120</v>
+      <c r="I20" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="J20" s="132"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="48"/>
       <c r="C21" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>32</v>
@@ -3057,32 +3055,33 @@
       </c>
       <c r="F21" s="44"/>
       <c r="G21" s="44" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H21" s="44"/>
       <c r="I21" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J21" s="132"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="48"/>
       <c r="C22" s="44" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="52">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="E22" s="126">
+        <f>'Research data'!G18</f>
+        <v>5206750</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="44" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H22" s="44"/>
-      <c r="I22" s="42" t="s">
-        <v>53</v>
+      <c r="I22" s="108" t="s">
+        <v>89</v>
       </c>
       <c r="J22" s="132"/>
     </row>
@@ -3092,18 +3091,19 @@
         <v>44</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="52">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="E23" s="51">
+        <f>'Research data'!G20</f>
+        <v>194.15</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="44" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H23" s="44"/>
-      <c r="I23" s="42" t="s">
-        <v>53</v>
+      <c r="I23" s="108" t="s">
+        <v>89</v>
       </c>
       <c r="J23" s="132"/>
     </row>
@@ -3113,213 +3113,203 @@
         <v>45</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="126">
-        <f>'Research data'!G18</f>
-        <v>5206750</v>
+        <v>49</v>
+      </c>
+      <c r="E24" s="129">
+        <v>0</v>
       </c>
       <c r="F24" s="44"/>
       <c r="G24" s="44" t="s">
         <v>56</v>
       </c>
       <c r="H24" s="44"/>
-      <c r="I24" s="108" t="s">
-        <v>91</v>
+      <c r="I24" s="142" t="s">
+        <v>51</v>
       </c>
       <c r="J24" s="132"/>
     </row>
     <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="48"/>
       <c r="C25" s="44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="51">
-        <f>'Research data'!G20</f>
-        <v>194.15</v>
+        <v>3</v>
+      </c>
+      <c r="E25" s="52">
+        <v>0.04</v>
       </c>
       <c r="F25" s="44"/>
       <c r="G25" s="44" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="H25" s="44"/>
-      <c r="I25" s="108" t="s">
-        <v>91</v>
+      <c r="I25" s="168" t="s">
+        <v>133</v>
       </c>
       <c r="J25" s="132"/>
     </row>
     <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="48"/>
       <c r="C26" s="44" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D26" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="52">
+        <v>0</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="129">
-        <v>0</v>
-      </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="142" t="s">
-        <v>53</v>
-      </c>
       <c r="J26" s="132"/>
     </row>
-    <row r="27" spans="2:10" ht="17" thickBot="1">
+    <row r="27" spans="2:10">
       <c r="B27" s="48"/>
-      <c r="C27" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="52">
-        <v>0.04</v>
-      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="130"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="G27" s="44"/>
       <c r="H27" s="44"/>
-      <c r="I27" s="177" t="s">
-        <v>135</v>
-      </c>
+      <c r="I27" s="43"/>
       <c r="J27" s="132"/>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="48"/>
-      <c r="C28" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="52">
-        <v>0</v>
-      </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="42" t="s">
-        <v>53</v>
-      </c>
+      <c r="C28" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="127"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
       <c r="J28" s="132"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="48"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="130"/>
+      <c r="C29" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="52">
+        <f>'Research data'!G11</f>
+        <v>6.6199999999999995E-2</v>
+      </c>
       <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
+      <c r="G29" s="44" t="s">
+        <v>14</v>
+      </c>
       <c r="H29" s="44"/>
-      <c r="I29" s="43"/>
+      <c r="I29" s="145" t="s">
+        <v>93</v>
+      </c>
       <c r="J29" s="132"/>
     </row>
     <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="48"/>
-      <c r="C30" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="127"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
+      <c r="C30" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="126">
+        <f>'Research data'!G12</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="44"/>
+      <c r="I30" s="165" t="s">
+        <v>118</v>
+      </c>
       <c r="J30" s="132"/>
     </row>
     <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="48"/>
       <c r="C31" s="44" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" s="52">
-        <f>'Research data'!G11</f>
-        <v>6.6199999999999995E-2</v>
+        <f>'Research data'!G13</f>
+        <v>25</v>
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="44" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H31" s="44"/>
-      <c r="I31" s="145" t="s">
-        <v>95</v>
+      <c r="I31" s="165" t="s">
+        <v>118</v>
       </c>
       <c r="J31" s="132"/>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="48"/>
       <c r="C32" s="44" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="126">
-        <f>'Research data'!G12</f>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E32" s="52">
+        <v>0</v>
       </c>
       <c r="F32" s="44"/>
-      <c r="G32" s="44" t="s">
-        <v>25</v>
-      </c>
+      <c r="G32" s="44"/>
       <c r="H32" s="44"/>
-      <c r="I32" s="165" t="s">
-        <v>120</v>
+      <c r="I32" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="J32" s="132"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1">
-      <c r="B33" s="48"/>
-      <c r="C33" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="52">
-        <f>'Research data'!G13</f>
-        <v>25</v>
-      </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="44"/>
-      <c r="I33" s="165" t="s">
-        <v>120</v>
-      </c>
-      <c r="J33" s="132"/>
-    </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1">
-      <c r="B34" s="48"/>
-      <c r="C34" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="52">
+    <row r="33" spans="2:10" s="154" customFormat="1" ht="17" thickBot="1">
+      <c r="B33" s="155"/>
+      <c r="C33" s="156" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="157">
+        <v>4680</v>
+      </c>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="158" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" s="159"/>
+    </row>
+    <row r="34" spans="2:10" s="154" customFormat="1" ht="17" thickBot="1">
+      <c r="B34" s="155"/>
+      <c r="C34" s="156" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="157">
         <v>0</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="J34" s="132"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="158" t="s">
+        <v>115</v>
+      </c>
+      <c r="J34" s="159"/>
     </row>
     <row r="35" spans="2:10" s="154" customFormat="1" ht="17" thickBot="1">
       <c r="B35" s="155"/>
@@ -3328,13 +3318,13 @@
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="157">
-        <v>4680</v>
+        <v>55800</v>
       </c>
       <c r="F35" s="156"/>
       <c r="G35" s="156"/>
       <c r="H35" s="156"/>
       <c r="I35" s="158" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J35" s="159"/>
     </row>
@@ -3345,13 +3335,13 @@
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="157">
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="F36" s="156"/>
       <c r="G36" s="156"/>
       <c r="H36" s="156"/>
       <c r="I36" s="158" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J36" s="159"/>
     </row>
@@ -3362,60 +3352,26 @@
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="157">
-        <v>55800</v>
+        <v>3780</v>
       </c>
       <c r="F37" s="156"/>
       <c r="G37" s="156"/>
       <c r="H37" s="156"/>
       <c r="I37" s="158" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J37" s="159"/>
     </row>
-    <row r="38" spans="2:10" s="154" customFormat="1" ht="17" thickBot="1">
-      <c r="B38" s="155"/>
-      <c r="C38" s="156" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="157">
-        <v>10800</v>
-      </c>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="158" t="s">
-        <v>117</v>
-      </c>
-      <c r="J38" s="159"/>
-    </row>
-    <row r="39" spans="2:10" s="154" customFormat="1" ht="17" thickBot="1">
-      <c r="B39" s="155"/>
-      <c r="C39" s="156" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="157">
-        <v>3780</v>
-      </c>
-      <c r="F39" s="156"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="158" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" s="159"/>
-    </row>
-    <row r="40" spans="2:10" s="154" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="B40" s="160"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="162"/>
+    <row r="38" spans="2:10" s="154" customFormat="1" ht="20" customHeight="1" thickBot="1">
+      <c r="B38" s="160"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3434,25 +3390,25 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="74" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="74" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="74" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="74" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="74" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="74" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="74" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="74" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="75" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="75" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="75" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="75" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="74" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="74" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="74" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="74" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="74" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="74" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="74" customWidth="1"/>
+    <col min="10" max="10" width="2.5" style="75" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="75" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="75" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" style="75" customWidth="1"/>
     <col min="14" max="14" width="60" style="74" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="74"/>
+    <col min="15" max="16384" width="10.6640625" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" thickBot="1"/>
@@ -3474,7 +3430,7 @@
     <row r="3" spans="1:14" s="33" customFormat="1">
       <c r="B3" s="32"/>
       <c r="C3" s="139" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -3482,20 +3438,20 @@
         <v>13</v>
       </c>
       <c r="G3" s="139" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3" s="139"/>
       <c r="I3" s="139" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M3" s="71"/>
       <c r="N3" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3516,7 +3472,7 @@
     <row r="5" spans="1:14" ht="17" thickBot="1">
       <c r="B5" s="80"/>
       <c r="C5" s="41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -3538,7 +3494,7 @@
       <c r="D6" s="83"/>
       <c r="E6" s="83"/>
       <c r="F6" s="84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G6" s="85">
         <f>I6</f>
@@ -3557,11 +3513,11 @@
     </row>
     <row r="7" spans="1:14" ht="17" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" s="80"/>
       <c r="C7" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
@@ -3588,7 +3544,7 @@
     <row r="8" spans="1:14" ht="17" thickBot="1">
       <c r="B8" s="80"/>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
@@ -3647,7 +3603,7 @@
     <row r="11" spans="1:14" ht="17" thickBot="1">
       <c r="B11" s="80"/>
       <c r="C11" s="140" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="88"/>
       <c r="E11" s="88"/>
@@ -3668,7 +3624,7 @@
       </c>
       <c r="M11" s="87"/>
       <c r="N11" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17" thickBot="1">
@@ -3736,7 +3692,7 @@
     <row r="15" spans="1:14" ht="17" thickBot="1">
       <c r="B15" s="80"/>
       <c r="C15" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -3753,7 +3709,7 @@
     <row r="16" spans="1:14" ht="17" thickBot="1">
       <c r="B16" s="80"/>
       <c r="C16" s="133" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -3780,7 +3736,7 @@
       <c r="D17" s="98"/>
       <c r="E17" s="98"/>
       <c r="F17" s="134" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G17" s="85">
         <f>I17</f>
@@ -3800,7 +3756,7 @@
     <row r="18" spans="2:14" ht="17" thickBot="1">
       <c r="B18" s="80"/>
       <c r="C18" s="143" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
@@ -3822,12 +3778,12 @@
     <row r="19" spans="2:14" ht="17" thickBot="1">
       <c r="B19" s="80"/>
       <c r="C19" s="133" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="135" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G19" s="85">
         <f>I19</f>
@@ -3847,12 +3803,12 @@
     <row r="20" spans="2:14" ht="17" thickBot="1">
       <c r="B20" s="80"/>
       <c r="C20" s="143" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20" s="101"/>
       <c r="E20" s="101"/>
       <c r="F20" s="84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="95">
         <f>ROUND(G21*G6,2)</f>
@@ -3869,12 +3825,12 @@
     <row r="21" spans="2:14" ht="17" thickBot="1">
       <c r="B21" s="80"/>
       <c r="C21" s="133" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D21" s="100"/>
       <c r="E21" s="100"/>
       <c r="F21" s="134" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G21" s="85">
         <f>I21</f>
@@ -3923,18 +3879,18 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="57" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="53" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="53" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="54" customWidth="1"/>
-    <col min="11" max="11" width="77.42578125" style="53" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="53"/>
+    <col min="1" max="1" width="3.33203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="57" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="53" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="33.5" style="54" customWidth="1"/>
+    <col min="11" max="11" width="77.5" style="53" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:11" ht="17" thickBot="1"/>
@@ -3988,13 +3944,13 @@
         <v>30</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K5" s="62" t="s">
         <v>15</v>
@@ -4058,22 +4014,22 @@
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F11" s="66"/>
       <c r="G11" s="72"/>
       <c r="H11" s="72"/>
       <c r="I11" s="64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J11" s="70"/>
       <c r="K11" s="68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="3:11">
       <c r="C12" s="65" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="60"/>
@@ -4097,19 +4053,19 @@
     </row>
     <row r="14" spans="3:11" ht="17">
       <c r="E14" s="53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G14" s="53">
         <v>2018</v>
       </c>
       <c r="I14" s="53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J14" s="166" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="3:11">
@@ -4120,12 +4076,12 @@
     </row>
     <row r="16" spans="3:11">
       <c r="C16" s="64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -4140,12 +4096,12 @@
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="3:3">
@@ -4165,19 +4121,19 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="C11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="146" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="150" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="146" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" style="146" customWidth="1"/>
-    <col min="6" max="12" width="10.7109375" style="146"/>
-    <col min="13" max="13" width="33.42578125" style="146" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="146"/>
+    <col min="1" max="1" width="3.5" style="146" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="150" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="146" customWidth="1"/>
+    <col min="4" max="5" width="18.5" style="146" customWidth="1"/>
+    <col min="6" max="12" width="10.6640625" style="146"/>
+    <col min="13" max="13" width="33.5" style="146" customWidth="1"/>
+    <col min="14" max="16384" width="10.6640625" style="146"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="17" thickBot="1"/>
@@ -4199,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -4239,7 +4195,7 @@
     </row>
     <row r="7" spans="3:13">
       <c r="C7" s="148" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
@@ -4323,7 +4279,7 @@
         <v>0.04</v>
       </c>
       <c r="F13" s="153" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G13" s="148"/>
       <c r="H13" s="148"/>
@@ -4351,7 +4307,7 @@
         <v>2.5</v>
       </c>
       <c r="F15" s="153" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G15" s="148"/>
       <c r="H15" s="148"/>
@@ -4367,7 +4323,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="153" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G16" s="148"/>
       <c r="H16" s="148"/>
@@ -4535,23 +4491,23 @@
     </row>
     <row r="30" spans="3:13">
       <c r="C30" s="163" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="3:13">
       <c r="C31" s="167" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="3:13">
       <c r="D32" s="163" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E32" s="146">
         <v>176.5</v>
       </c>
       <c r="F32" s="164" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="4:6">
@@ -4559,30 +4515,30 @@
     </row>
     <row r="34" spans="4:6">
       <c r="D34" s="153" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E34" s="146">
         <v>3.5</v>
       </c>
       <c r="F34" s="163" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="4:6">
       <c r="D35" s="153" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E35" s="146">
         <f>E34*1000000/1000</f>
         <v>3500</v>
       </c>
       <c r="F35" s="164" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="4:6">
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E36" s="146">
         <v>27.9</v>
@@ -4593,7 +4549,7 @@
     </row>
     <row r="37" spans="4:6">
       <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E37" s="146">
         <v>83.5</v>
@@ -4604,7 +4560,7 @@
     </row>
     <row r="38" spans="4:6">
       <c r="D38" s="163" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E38" s="146">
         <v>25</v>
@@ -4620,25 +4576,25 @@
     </row>
     <row r="40" spans="4:6">
       <c r="D40" s="153" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E40" s="146">
         <v>29500</v>
       </c>
       <c r="F40" s="163" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="4:6">
       <c r="D41" s="153" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E41" s="146">
         <f>E40/1000</f>
         <v>29.5</v>
       </c>
       <c r="F41" s="164" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="4:6">
@@ -4646,13 +4602,13 @@
     </row>
     <row r="43" spans="4:6">
       <c r="D43" s="153" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E43" s="146">
         <v>1.1000000000000001</v>
       </c>
       <c r="F43" s="164" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
